--- a/2013-p/ex4.xlsx
+++ b/2013-p/ex4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId7"/>
-    <pivotCache cacheId="9" r:id="rId8"/>
-    <pivotCache cacheId="12" r:id="rId9"/>
-    <pivotCache cacheId="20" r:id="rId10"/>
+    <pivotCache cacheId="21" r:id="rId7"/>
+    <pivotCache cacheId="22" r:id="rId8"/>
+    <pivotCache cacheId="23" r:id="rId9"/>
+    <pivotCache cacheId="24" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="204">
   <si>
     <t>Nazwisko</t>
   </si>
@@ -705,9 +705,6 @@
   </si>
   <si>
     <t xml:space="preserve">  Miejscowość</t>
-  </si>
-  <si>
-    <t>(puste)</t>
   </si>
   <si>
     <t>Suma końcowa</t>
@@ -944,7 +941,28 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
@@ -1081,6 +1099,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3429-4C19-9A1A-3D17E9560385}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1096,6 +1119,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3429-4C19-9A1A-3D17E9560385}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1111,6 +1139,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3429-4C19-9A1A-3D17E9560385}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1126,6 +1159,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3429-4C19-9A1A-3D17E9560385}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1141,6 +1179,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3429-4C19-9A1A-3D17E9560385}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1937,7 +1980,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="43910.926218402776" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="96">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E1048576" sheet="Dane"/>
+    <worksheetSource ref="A1:E1048576" sheet="Dane" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Nazwisko" numFmtId="0">
@@ -1981,7 +2024,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="43910.934421990743" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="96">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H1048576" sheet="zad d"/>
+    <worksheetSource ref="A1:H1048576" sheet="zad d" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Nazwisko" numFmtId="0">
@@ -2068,7 +2111,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="43910.936948263887" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="96">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H1048576" sheet="zad e"/>
+    <worksheetSource ref="A1:H1048576" sheet="zad e" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Nazwisko" numFmtId="0">
@@ -2121,7 +2164,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Autor" refreshedDate="43910.945254513892" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="96">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H1048576" sheet="zad b"/>
+    <worksheetSource ref="A1:H1048576" sheet="zad b" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Nazwisko" numFmtId="0">
@@ -5783,8 +5826,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -5804,7 +5847,7 @@
         <item x="5"/>
         <item x="10"/>
         <item x="9"/>
-        <item x="12"/>
+        <item h="1" x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5812,7 +5855,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
@@ -5849,9 +5892,6 @@
     <i>
       <x v="11"/>
     </i>
-    <i>
-      <x v="12"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -5863,29 +5903,29 @@
     <dataField name="Liczba z  Nazwa_towaru" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="9">
+    <format dxfId="16">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="14">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -5899,7 +5939,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna6" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna6" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J1:K7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -6000,13 +6040,13 @@
     <dataField name="Liczba z kod" fld="7" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -6020,7 +6060,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J3:J7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -6119,7 +6159,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna4" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J1:K14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -8726,22 +8766,22 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B13" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8844,15 +8884,13 @@
       <c r="A14" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="7">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="7">
-        <v>95</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8863,8 +8901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N6" sqref="M2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8904,13 +8942,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -9140,7 +9178,7 @@
         <v xml:space="preserve"> CzerwińskaJoa</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7">
         <v>95</v>
@@ -11600,7 +11638,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11630,7 +11668,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -14185,7 +14223,7 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="A6:H6"/>
+      <selection activeCell="J6" sqref="J4:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14224,10 +14262,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K1" s="4">
         <v>1</v>
@@ -14287,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -14407,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -16822,8 +16860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16862,13 +16900,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -16898,7 +16936,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K2" s="5">
         <v>2830</v>
@@ -16931,7 +16969,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K3" s="5">
         <v>7509</v>
@@ -16964,7 +17002,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K4" s="5">
         <v>7788</v>
@@ -16997,7 +17035,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K5" s="5">
         <v>5880</v>
@@ -17030,7 +17068,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K6" s="5">
         <v>1200</v>
@@ -17063,7 +17101,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K7" s="5">
         <v>6800</v>
@@ -17096,7 +17134,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K8" s="5">
         <v>10519</v>
@@ -17129,7 +17167,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K9" s="5">
         <v>2970</v>
@@ -17162,7 +17200,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K10" s="5">
         <v>5120</v>
@@ -17195,7 +17233,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K11" s="5">
         <v>1830</v>
@@ -17228,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K12" s="5">
         <v>1700</v>
@@ -17261,7 +17299,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K13" s="5">
         <v>8129</v>
@@ -17294,7 +17332,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K14" s="5">
         <v>62275</v>
@@ -17408,7 +17446,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -17438,7 +17476,7 @@
         <v>12</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
